--- a/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-topk-desired-masking-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="107">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,82 +40,106 @@
     <t>name</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
     <t>die</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>uncertainty</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>falling</t>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>collapse</t>
+    <t>pressure</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>shame</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>selfish</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>shame</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>facing</t>
+  </si>
+  <si>
+    <t>empty</t>
   </si>
   <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>recession</t>
+    <t>worried</t>
   </si>
   <si>
     <t>lower</t>
   </si>
   <si>
+    <t>emergency</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
-    <t>emergency</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>isolation</t>
   </si>
   <si>
     <t>risk</t>
@@ -133,6 +157,12 @@
     <t>oil</t>
   </si>
   <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
     <t>prices</t>
   </si>
   <si>
@@ -142,136 +172,169 @@
     <t>19</t>
   </si>
   <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>join</t>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>special</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>give</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>helping</t>
   </si>
   <si>
     <t>alert</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>helping</t>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>keep</t>
   </si>
   <si>
     <t>shop</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>need</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>corona</t>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -629,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q45"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,10 +700,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,13 +761,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9210526315789473</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -716,19 +779,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -740,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -748,13 +811,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.918918918918919</v>
+        <v>0.9210526315789473</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -769,16 +832,16 @@
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="L4">
         <v>44</v>
       </c>
-      <c r="K4">
-        <v>0.95</v>
-      </c>
-      <c r="L4">
-        <v>114</v>
-      </c>
       <c r="M4">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -790,7 +853,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -798,13 +861,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9117647058823529</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -816,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="K5">
         <v>0.9491525423728814</v>
@@ -848,13 +911,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8888888888888888</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -866,19 +929,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="K6">
-        <v>0.9162303664921466</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L6">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="M6">
-        <v>351</v>
+        <v>40</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -887,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -898,13 +961,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8458904109589042</v>
+        <v>0.8527397260273972</v>
       </c>
       <c r="C7">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D7">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -916,19 +979,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="K7">
-        <v>0.8839285714285714</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L7">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="M7">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -940,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -948,13 +1011,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8275862068965517</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -969,16 +1032,16 @@
         <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="K8">
-        <v>0.8837209302325582</v>
+        <v>0.90625</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -990,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -998,13 +1061,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C9">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1016,19 +1079,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="K9">
-        <v>0.8793103448275862</v>
+        <v>0.9033942558746736</v>
       </c>
       <c r="L9">
-        <v>51</v>
+        <v>346</v>
       </c>
       <c r="M9">
-        <v>51</v>
+        <v>346</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1040,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1048,13 +1111,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7948717948717948</v>
+        <v>0.8260869565217391</v>
       </c>
       <c r="C10">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1066,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="K10">
-        <v>0.8773584905660378</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L10">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M10">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1090,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1098,13 +1161,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7843137254901961</v>
+        <v>0.825</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1116,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L11">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="M11">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1140,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1148,13 +1211,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.76</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1166,19 +1229,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="K12">
-        <v>0.8723404255319149</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1190,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1198,13 +1261,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7333333333333333</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1216,19 +1279,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="K13">
-        <v>0.86875</v>
+        <v>0.8723404255319149</v>
       </c>
       <c r="L13">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="M13">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1240,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1248,13 +1311,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7267441860465116</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C14">
-        <v>375</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>375</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1266,19 +1329,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>141</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="K14">
-        <v>0.8591549295774648</v>
+        <v>0.8625</v>
       </c>
       <c r="L14">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="M14">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1290,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1298,13 +1361,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7222222222222222</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D15">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1316,19 +1379,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="K15">
-        <v>0.8536585365853658</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L15">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1340,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1348,13 +1411,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7142857142857143</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="C16">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="D16">
-        <v>135</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1366,19 +1429,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="K16">
-        <v>0.8333333333333334</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1390,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1398,13 +1461,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7037037037037037</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1416,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="K17">
-        <v>0.82</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L17">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1440,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1448,13 +1511,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7027027027027027</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="C18">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1466,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="K18">
-        <v>0.8095238095238095</v>
+        <v>0.852112676056338</v>
       </c>
       <c r="L18">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="M18">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1490,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1498,13 +1561,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.7</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1516,19 +1579,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="K19">
-        <v>0.7916666666666666</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1540,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1548,13 +1611,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6949152542372882</v>
+        <v>0.7383720930232558</v>
       </c>
       <c r="C20">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="D20">
-        <v>41</v>
+        <v>381</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1566,19 +1629,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>18</v>
+        <v>135</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="K20">
-        <v>0.7777777777777778</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L20">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="M20">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1590,7 +1653,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1598,13 +1661,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.71875</v>
       </c>
       <c r="C21">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D21">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1616,19 +1679,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="K21">
-        <v>0.7692307692307693</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1640,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1648,13 +1711,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6375838926174496</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C22">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="D22">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1669,16 +1732,16 @@
         <v>54</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="K22">
-        <v>0.7558823529411764</v>
+        <v>0.8</v>
       </c>
       <c r="L22">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="M22">
-        <v>257</v>
+        <v>32</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1690,7 +1753,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>83</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1698,13 +1761,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6363636363636364</v>
+        <v>0.711864406779661</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1716,19 +1779,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="K23">
-        <v>0.7531380753138075</v>
+        <v>0.8</v>
       </c>
       <c r="L23">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="M23">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1740,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1748,13 +1811,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6129032258064516</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="C24">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D24">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1766,19 +1829,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="K24">
-        <v>0.7457627118644068</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L24">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>220</v>
+        <v>38</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1790,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1798,13 +1861,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5714285714285714</v>
+        <v>0.7</v>
       </c>
       <c r="C25">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1816,19 +1879,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="K25">
-        <v>0.7340425531914894</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L25">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1840,7 +1903,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1848,13 +1911,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5636363636363636</v>
+        <v>0.6510067114093959</v>
       </c>
       <c r="C26">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1866,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="K26">
-        <v>0.7285714285714285</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L26">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="M26">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1890,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1898,13 +1961,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5600000000000001</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C27">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="D27">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1916,19 +1979,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="K27">
-        <v>0.7230769230769231</v>
+        <v>0.7735294117647059</v>
       </c>
       <c r="L27">
-        <v>47</v>
+        <v>263</v>
       </c>
       <c r="M27">
-        <v>47</v>
+        <v>263</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1940,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1948,13 +2011,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4777777777777778</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="C28">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="D28">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1966,19 +2029,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="K28">
-        <v>0.7058823529411765</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1990,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1998,13 +2061,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4155844155844156</v>
+        <v>0.6</v>
       </c>
       <c r="C29">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D29">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2016,19 +2079,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="K29">
-        <v>0.696969696969697</v>
+        <v>0.75</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2040,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2048,13 +2111,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4087301587301587</v>
+        <v>0.6</v>
       </c>
       <c r="C30">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2066,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>149</v>
+        <v>22</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="K30">
-        <v>0.6853932584269663</v>
+        <v>0.7491525423728813</v>
       </c>
       <c r="L30">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c r="M30">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2090,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2098,13 +2161,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C31">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="D31">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2116,19 +2179,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="K31">
-        <v>0.65</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2140,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2148,13 +2211,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3002680965147453</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="C32">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2166,19 +2229,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>261</v>
+        <v>25</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="K32">
-        <v>0.6027397260273972</v>
+        <v>0.74</v>
       </c>
       <c r="L32">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M32">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2190,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2198,13 +2261,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1133333333333333</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="C33">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D33">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2216,19 +2279,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>266</v>
+        <v>35</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="K33">
-        <v>0.6</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L33">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="M33">
-        <v>27</v>
+        <v>174</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2240,7 +2303,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2248,37 +2311,37 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.025</v>
+        <v>0.5272727272727272</v>
       </c>
       <c r="C34">
         <v>29</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>1131</v>
+        <v>26</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="K34">
-        <v>0.5769230769230769</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L34">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="M34">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2290,7 +2353,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2298,37 +2361,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.01845257364842991</v>
+        <v>0.5</v>
       </c>
       <c r="C35">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="D35">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E35">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>3032</v>
+        <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="K35">
-        <v>0.5757575757575758</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2340,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2348,283 +2411,883 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.009873060648801129</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="C36">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>27</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K36">
+        <v>0.6923076923076923</v>
+      </c>
+      <c r="L36">
+        <v>45</v>
+      </c>
+      <c r="M36">
+        <v>45</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.4415584415584415</v>
+      </c>
+      <c r="C37">
+        <v>34</v>
+      </c>
+      <c r="D37">
+        <v>34</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>43</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K37">
+        <v>0.6142857142857143</v>
+      </c>
+      <c r="L37">
+        <v>43</v>
+      </c>
+      <c r="M37">
+        <v>43</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="C38">
+        <v>108</v>
+      </c>
+      <c r="D38">
+        <v>108</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>144</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K38">
+        <v>0.6065573770491803</v>
+      </c>
+      <c r="L38">
+        <v>37</v>
+      </c>
+      <c r="M38">
+        <v>37</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.35</v>
+      </c>
+      <c r="C39">
+        <v>28</v>
+      </c>
+      <c r="D39">
+        <v>28</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>52</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="K39">
+        <v>0.589041095890411</v>
+      </c>
+      <c r="L39">
+        <v>43</v>
+      </c>
+      <c r="M39">
+        <v>43</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.3163538873994638</v>
+      </c>
+      <c r="C40">
+        <v>118</v>
+      </c>
+      <c r="D40">
+        <v>118</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>255</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K40">
+        <v>0.5789473684210527</v>
+      </c>
+      <c r="L40">
+        <v>33</v>
+      </c>
+      <c r="M40">
+        <v>33</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.23</v>
+      </c>
+      <c r="C41">
+        <v>69</v>
+      </c>
+      <c r="D41">
+        <v>69</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>231</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K41">
+        <v>0.53125</v>
+      </c>
+      <c r="L41">
+        <v>34</v>
+      </c>
+      <c r="M41">
+        <v>34</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.08050847457627118</v>
+      </c>
+      <c r="C42">
+        <v>19</v>
+      </c>
+      <c r="D42">
+        <v>19</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>217</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K42">
+        <v>0.5256410256410257</v>
+      </c>
+      <c r="L42">
+        <v>41</v>
+      </c>
+      <c r="M42">
+        <v>41</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43">
+        <v>0.07191780821917808</v>
+      </c>
+      <c r="C43">
         <v>21</v>
       </c>
-      <c r="D36">
-        <v>37</v>
-      </c>
-      <c r="E36">
-        <v>0.43</v>
-      </c>
-      <c r="F36">
-        <v>0.5700000000000001</v>
-      </c>
-      <c r="G36" t="b">
-        <v>1</v>
-      </c>
-      <c r="H36">
-        <v>2106</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="K36">
-        <v>0.5428571428571428</v>
-      </c>
-      <c r="L36">
-        <v>19</v>
-      </c>
-      <c r="M36">
-        <v>19</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17">
-      <c r="J37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37">
+      <c r="D43">
+        <v>22</v>
+      </c>
+      <c r="E43">
+        <v>0.05</v>
+      </c>
+      <c r="F43">
+        <v>0.95</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>271</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K43">
+        <v>0.5084745762711864</v>
+      </c>
+      <c r="L43">
+        <v>30</v>
+      </c>
+      <c r="M43">
+        <v>30</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44">
+        <v>0.03793103448275862</v>
+      </c>
+      <c r="C44">
+        <v>44</v>
+      </c>
+      <c r="D44">
+        <v>45</v>
+      </c>
+      <c r="E44">
+        <v>0.02</v>
+      </c>
+      <c r="F44">
+        <v>0.98</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1116</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K44">
         <v>0.5</v>
-      </c>
-      <c r="L37">
-        <v>21</v>
-      </c>
-      <c r="M37">
-        <v>21</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
-      <c r="J38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K38">
-        <v>0.484375</v>
-      </c>
-      <c r="L38">
-        <v>31</v>
-      </c>
-      <c r="M38">
-        <v>31</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38">
-        <v>0</v>
-      </c>
-      <c r="P38" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q38">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17">
-      <c r="J39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K39">
-        <v>0.4385964912280702</v>
-      </c>
-      <c r="L39">
-        <v>25</v>
-      </c>
-      <c r="M39">
-        <v>25</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17">
-      <c r="J40" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K40">
-        <v>0.3728813559322034</v>
-      </c>
-      <c r="L40">
-        <v>22</v>
-      </c>
-      <c r="M40">
-        <v>22</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q40">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="J41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K41">
-        <v>0.1189189189189189</v>
-      </c>
-      <c r="L41">
-        <v>22</v>
-      </c>
-      <c r="M41">
-        <v>22</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q41">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17">
-      <c r="J42" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K42">
-        <v>0.07451923076923077</v>
-      </c>
-      <c r="L42">
-        <v>31</v>
-      </c>
-      <c r="M42">
-        <v>31</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17">
-      <c r="J43" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K43">
-        <v>0.06876790830945559</v>
-      </c>
-      <c r="L43">
-        <v>24</v>
-      </c>
-      <c r="M43">
-        <v>24</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17">
-      <c r="J44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K44">
-        <v>0.06514657980456026</v>
       </c>
       <c r="L44">
         <v>20</v>
       </c>
       <c r="M44">
+        <v>22</v>
+      </c>
+      <c r="N44">
+        <v>0.91</v>
+      </c>
+      <c r="O44">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P44" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45">
+        <v>0.03465025906735751</v>
+      </c>
+      <c r="C45">
+        <v>107</v>
+      </c>
+      <c r="D45">
+        <v>126</v>
+      </c>
+      <c r="E45">
+        <v>0.15</v>
+      </c>
+      <c r="F45">
+        <v>0.85</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>2981</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K45">
+        <v>0.3611111111111111</v>
+      </c>
+      <c r="L45">
+        <v>26</v>
+      </c>
+      <c r="M45">
+        <v>26</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46">
+        <v>0.02403393025447691</v>
+      </c>
+      <c r="C46">
+        <v>51</v>
+      </c>
+      <c r="D46">
+        <v>72</v>
+      </c>
+      <c r="E46">
+        <v>0.29</v>
+      </c>
+      <c r="F46">
+        <v>0.71</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>2071</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K46">
+        <v>0.3457943925233645</v>
+      </c>
+      <c r="L46">
+        <v>37</v>
+      </c>
+      <c r="M46">
+        <v>39</v>
+      </c>
+      <c r="N46">
+        <v>0.95</v>
+      </c>
+      <c r="O46">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P46" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.02209302325581395</v>
+      </c>
+      <c r="C47">
+        <v>19</v>
+      </c>
+      <c r="D47">
+        <v>26</v>
+      </c>
+      <c r="E47">
+        <v>0.27</v>
+      </c>
+      <c r="F47">
+        <v>0.73</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>841</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K47">
+        <v>0.2822580645161291</v>
+      </c>
+      <c r="L47">
+        <v>35</v>
+      </c>
+      <c r="M47">
+        <v>35</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.008670520231213872</v>
+      </c>
+      <c r="C48">
+        <v>27</v>
+      </c>
+      <c r="D48">
+        <v>114</v>
+      </c>
+      <c r="E48">
+        <v>0.76</v>
+      </c>
+      <c r="F48">
+        <v>0.24</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>3087</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="K48">
+        <v>0.1621621621621622</v>
+      </c>
+      <c r="L48">
+        <v>30</v>
+      </c>
+      <c r="M48">
+        <v>30</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48">
+        <v>0</v>
+      </c>
+      <c r="P48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K49">
+        <v>0.1009771986970684</v>
+      </c>
+      <c r="L49">
+        <v>31</v>
+      </c>
+      <c r="M49">
+        <v>32</v>
+      </c>
+      <c r="N49">
+        <v>0.97</v>
+      </c>
+      <c r="O49">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K50">
+        <v>0.06620209059233449</v>
+      </c>
+      <c r="L50">
+        <v>19</v>
+      </c>
+      <c r="M50">
         <v>21</v>
       </c>
-      <c r="N44">
-        <v>0.95</v>
-      </c>
-      <c r="O44">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17">
-      <c r="J45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K45">
-        <v>0.01537496077816128</v>
-      </c>
-      <c r="L45">
-        <v>49</v>
-      </c>
-      <c r="M45">
-        <v>63</v>
-      </c>
-      <c r="N45">
-        <v>0.78</v>
-      </c>
-      <c r="O45">
-        <v>0.22</v>
-      </c>
-      <c r="P45" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q45">
-        <v>3138</v>
+      <c r="N50">
+        <v>0.9</v>
+      </c>
+      <c r="O50">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K51">
+        <v>0.06017191977077364</v>
+      </c>
+      <c r="L51">
+        <v>21</v>
+      </c>
+      <c r="M51">
+        <v>21</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K52">
+        <v>0.04567307692307692</v>
+      </c>
+      <c r="L52">
+        <v>19</v>
+      </c>
+      <c r="M52">
+        <v>19</v>
+      </c>
+      <c r="N52">
+        <v>1</v>
+      </c>
+      <c r="O52">
+        <v>0</v>
+      </c>
+      <c r="P52" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q52">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K53">
+        <v>0.0327613104524181</v>
+      </c>
+      <c r="L53">
+        <v>21</v>
+      </c>
+      <c r="M53">
+        <v>30</v>
+      </c>
+      <c r="N53">
+        <v>0.7</v>
+      </c>
+      <c r="O53">
+        <v>0.3</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="K54">
+        <v>0.02777777777777778</v>
+      </c>
+      <c r="L54">
+        <v>25</v>
+      </c>
+      <c r="M54">
+        <v>26</v>
+      </c>
+      <c r="N54">
+        <v>0.96</v>
+      </c>
+      <c r="O54">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K55">
+        <v>0.02741020793950851</v>
+      </c>
+      <c r="L55">
+        <v>87</v>
+      </c>
+      <c r="M55">
+        <v>114</v>
+      </c>
+      <c r="N55">
+        <v>0.76</v>
+      </c>
+      <c r="O55">
+        <v>0.24</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>3087</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K56">
+        <v>0.01003824091778203</v>
+      </c>
+      <c r="L56">
+        <v>21</v>
+      </c>
+      <c r="M56">
+        <v>72</v>
+      </c>
+      <c r="N56">
+        <v>0.29</v>
+      </c>
+      <c r="O56">
+        <v>0.71</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K57">
+        <v>0.006333333333333333</v>
+      </c>
+      <c r="L57">
+        <v>19</v>
+      </c>
+      <c r="M57">
+        <v>126</v>
+      </c>
+      <c r="N57">
+        <v>0.15</v>
+      </c>
+      <c r="O57">
+        <v>0.85</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>2981</v>
       </c>
     </row>
   </sheetData>
